--- a/2025-03-03_o3-mini_feedback_sheets/diff_spec/CREST syndrome with Type 2 Achalasia_vs_Food impaction.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/diff_spec/CREST syndrome with Type 2 Achalasia_vs_Food impaction.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon reported is present.</t>
+          <t>Raynauds phenomenon reported is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic feature of CREST syndrome and strongly supports systemic sclerosis-related pathology rather than an isolated food impaction.</t>
+          <t>Raynaud's phenomenon is a classic systemic feature of CREST syndrome and is not seen in food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>duration of 3 months of food getting stuck is present.</t>
+          <t>duration of 3 months of food getting stuck is present</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A specific history of food getting stuck over months is highly suggestive of intermittent mechanical obstruction, characteristic of food impaction.</t>
+          <t>A defined period of food impaction suggests a mechanical obstruction rather than a motility disorder seen in CREST.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias reported is present.</t>
+          <t>Telangiectasias reported is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are a key vascular manifestation in CREST syndrome, further pointing towards a systemic connective tissue disorder.</t>
+          <t>Telangiectasias are part of the CREST spectrum and strongly point toward systemic sclerosis-related pathology.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present.</t>
+          <t>Onset of chest pain associated with eating food is present</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chest pain triggered by eating is more in keeping with a food impaction episode, where the food bolus physically irritates or obstructs the esophagus.</t>
+          <t>Chest pain triggered by eating is more characteristic of an acute food impaction event rather than chronic esophageal dysmotility.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Long-standing heartburn (duration of years) is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic heartburn over years supports esophageal dysmotility seen in CREST with Type 2 Achalasia rather than an acute mechanical obstruction like food impaction.</t>
+          <t>Chronic reflux symptoms are common in CREST syndrome due to esophageal dysmotility resulting from scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Difficulty swallowing solids is present</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is typical of mechanical obstructions like food impaction rather than a motility disorder that usually affects both solids and liquids.</t>
+          <t>Mechanical obstruction from food impaction primarily affects the swallowing of solids more than liquids.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Long-standing reflux (duration of years) is present</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Persistent reflux similarly aligns with the gradual progression of esophageal involvement in CREST syndrome, contrasting with the typically acute onset of food impaction.</t>
+          <t>Persistent reflux indicates a longstanding motility disorder often seen in CREST-related esophageal involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Weight loss reported is present</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Weight loss can occur from reduced nutritional intake due to recurrent food impaction episodes, where patients avoid eating to prevent discomfort.</t>
+          <t>Weight loss can occur from recurrent food impactions leading to avoidance of food intake due to obstructive symptoms.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Difficulty swallowing liquids is present</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dysphagia to liquids is uncommon in food impaction, where solid food blockage is the norm, thus favoring a motility disorder such as Type 2 Achalasia in CREST syndrome.</t>
+          <t>Esophageal dysmotility in CREST syndrome typically affects both liquids and solids, differing from pure mechanical obstruction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Odynophagia may occur when an impacted food bolus causes mucosal irritation, lending support to a diagnosis of food impaction rather than a primary dysmotility disorder.</t>
+          <t>Odynophagia is common with an obstructive event like food impaction where local injury and irritation are present.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome (a variant of systemic sclerosis) has a strong female predominance compared to conditions leading to isolated food impaction.</t>
+          <t>CREST syndrome is more common in females compared to food impaction which does not have a gender predilection.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of systemic connective tissue or autoimmune findings</t>
+          <t>Previously diagnosed Coronary Artery Disease is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Food impaction is generally a localized mechanical problem; the absence of systemic features consistent with CREST syndrome (beyond demographics) favors a primary food impaction etiology.</t>
+          <t>In many cases, food impaction occurs in otherwise healthy individuals who do not have systemic diseases like coronary artery disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The typical age range for CREST syndrome is middle-aged adults, supporting this diagnosis over a sporadic food impaction event.</t>
+          <t>CREST syndrome with Type 2 Achalasia tends to occur in middle‐aged individuals, supporting this diagnosis over food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of prior radiation</t>
+          <t>Previously diagnosed Hyperlipidemia is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Although both conditions exclude radiation-induced strictures, in the context of food impaction workup, lack of radiation history helps rule out secondary causes and supports a primary mechanical obstruction.</t>
+          <t>Food impaction is typically an isolated esophageal event and is less associated with metabolic diseases such as hyperlipidemia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amlodipine use</t>
+          <t>Takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker often used in vascular diseases; its use in the absence of diagnosed hypertension may hint at treatment nuances in CREST‐related vasculopathy.</t>
+          <t>Amlodipine, a calcium channel blocker, is used to treat Raynaud’s phenomenon frequently seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of recent medication changes</t>
+          <t>Type 2 diabetes is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Food impaction does not usually result from recent medication-induced esophageal dysmotility; the stability of the medication regimen supports a localized event like impaction over a systemic dysmotility disorder.</t>
+          <t>The absence of type 2 diabetes supports the likelihood of a mechanical issue such as food impaction over a systemic connective tissue disorder.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of cardiovascular/metabolic comorbidities (absence of coronary artery disease, type 2 diabetes, obesity, hyperlipidemia, myocardial infarction, and prior stroke)</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The lack of these comorbidities reduces the likelihood of a typical mechanical obstruction seen in patients with a high cardiovascular risk profile and supports a non‐atherosclerotic systemic process such as CREST syndrome.</t>
+          <t>The absence of radiation history helps favor a primary motility disorder (like Type 2 Achalasia in CREST) over secondary causes which might mimic food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies, asthma, and eczema</t>
+          <t>Obesity is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Food impaction in an otherwise healthy individual is not associated with atopic or allergic conditions; their absence supports a mechanical cause rather than an esophageal dysmotility secondary to systemic disorders.</t>
+          <t>Food impaction often occurs in individuals without the broader systemic involvement (including obesity-related issues) that may cloud a diagnosis of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of irradiation history</t>
+          <t>Absence of multiple cardiovascular/metabolic risk factors</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While radiation to the neck, arm, or jaw can cause local esophageal strictures leading to food impaction, its absence makes a secondary restrictive process less likely, indirectly supporting a primary motility issue as seen in CREST-related achalasia.</t>
+          <t>The overall absence of cardiovascular and metabolic risk factors is more consistent with CREST syndrome, which is an autoimmune condition, rather than a mechanical obstruction typical of food impaction seen in patients with various risk factors.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of cardiovascular risk factors</t>
+          <t>Prior stroke is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The lack of coronary artery disease, hypertension (despite amlodipine use), diabetes, and obesity suggests the patient does not have the comorbidities that may predispose to chronic esophageal dysmotility; thus, an acute food impaction event becomes a more likely consideration.</t>
+          <t>The absence of neurological vascular events like stroke favors a straightforward mechanical etiology (food impaction) rather than a systemic autoimmune process seen in CREST.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present</t>
+          <t>Family history of myocardial infarction in father is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Although not specific, a history of prior tobacco use is sometimes associated with vascular and fibrotic changes, which have been observed in systemic sclerosis (including CREST syndrome) cases.</t>
+          <t>A family history of cardiovascular disease suggests underlying vascular pathology and potential connective tissue involvement, which is more often a feature of CREST syndrome with esophageal dysmotility than of simple food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present</t>
+          <t>Recent medical procedure is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Food impaction is generally a mechanical obstruction without an underlying vascular or autoimmune component; a family history of myocardial infarction does not support a food impaction mechanism and by contrast, its presence may point away from a straightforward mechanical issue.</t>
+          <t>The absence of recent medical procedures rules out iatrogenic injury or post-procedural dysmotility, conditions that could mimic or confound an episode of food impaction, making a primary mechanical blockage more likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present</t>
+          <t>Recent social stress is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vascular abnormalities are a component of CREST syndrome, and a family history of cardiovascular issues may indirectly support the vascular dysregulation seen in the syndrome.</t>
+          <t>Social stress has been associated with triggering or exacerbating autoimmune phenomena, which can include CREST syndrome, whereas food impaction is typically an isolated mechanical event.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alcohol use is absent</t>
+          <t>Recent Travel is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Since alcohol use can predispose to esophageal mucosal injury and subsequent motility issues that might lead to food impaction, its absence may indirectly argue against food impaction as a primary event.</t>
+          <t>Absence of travel decreases the likelihood of exposure to unfamiliar dietary practices or ingestion of problematic food types that might lead to an acute food impaction scenario.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recent social stress is present</t>
+          <t>Prior tobacco use is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stress can exacerbate autoimmune conditions; while not diagnostic, stress may unmask or worsen symptoms in CREST syndrome with esophageal dysmotility.</t>
+          <t>A history of tobacco use has been linked in some studies to increased risk of autoimmune and systemic conditions, which may predispose to CREST syndrome rather than an acute food impaction event.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent</t>
+          <t>Family history of cancer is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Food impaction can be iatrogenic or associated with recent esophageal interventions; the absence of any recent procedure supports a non-iatrogenic cause such as simple mechanical impaction from ingestion.</t>
+          <t>Without a family history of cancer, there is less suspicion for malignancy-associated esophageal strictures that can predispose to food impaction, pointing instead toward an isolated mechanical event.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Current tobacco use is absent</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lack of current smoking may support a background of chronic exposure rather than an acute insult; chronic autoimmune conditions can develop over years whereas food impaction is seldom linked to current tobacco use.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Alcohol use is absent</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Absence of alcohol use eliminates a potential cause for acute esophageal irritation or motility issues more typical in mechanical or spasm-related disorders rather than an autoimmune process.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Prior tobacco use is present</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While prior tobacco use is not a strong risk factor for food impaction, its presence without current use may indicate changes in esophageal motility or structural changes that contribute to mechanical obstruction.</t>
+          <t>Alcohol consumption can predispose to esophageal injury or motility issues; its absence makes underlying motility disorders less likely and supports a scenario where a transient food bolus impaction might occur unrelatedly.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent</t>
+          <t>Family history of Rheumatoid Arthritis is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use may be more typical in patients with a diagnosed systemic condition who have modified their behavior; though weak, it can align with a long-term history of managing a chronic disease like CREST syndrome.</t>
+          <t>Though rheumatoid arthritis is not directly linked to either condition, its absence may modestly tilt the context toward a primary connective tissue dysmotility (as seen in CREST syndrome) rather than inflammatory causes that might mimic impaction events.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recent social stress is present</t>
+          <t>Gestational complications with prior pregnancy is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Acute episodes of food impaction can sometimes be precipitated by changes in eating behavior under stress; while non‐specific, this finding is more in keeping with an episodic, mechanical phenomenon rather than a chronic autoimmune process.</t>
+          <t>The absence of gestational complications removes one potential predisposing factor for systemic or microvascular alterations in the esophagus, which are more aligned with CREST syndrome, thereby favoring a primary food impaction diagnosis in this context.</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are a classic vascular manifestation seen in CREST syndrome and are not expected in simple food impaction.</t>
+          <t>Telangiectasias are a classic feature in CREST syndrome and are rarely associated with food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Raynaud’s phenomenon is a common feature in CREST syndrome; its absence leans toward food impaction since food impaction does not involve vasospastic symptoms.</t>
+          <t>Raynaud's phenomenon is a frequent feature in CREST syndrome; its absence favors a diagnosis like food impaction which is not associated with systemic vascular changes.</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can result from chronic dysphagia seen in achalasia associated with CREST syndrome, unlike the typically acute scenario of food impaction.</t>
+          <t>Weight loss can indicate chronic esophageal dysmotility seen in CREST syndrome with Type 2 Achalasia rather than an acute food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -952,19 +952,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sclerodactyly (hand thickening) is typical in CREST syndrome; its absence supports a non-systemic cause such as food impaction.</t>
+          <t>Hand thickening is common in scleroderma (a component of CREST syndrome); its absence leans away from CREST and supports food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent</t>
+          <t>Absence of hoarse voice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain supports CREST-related achalasia, as food impaction often leads to discomfort or pain due to obstruction.</t>
+          <t>While hoarseness can be seen in reflux-associated conditions, its absence supports a non-reflux etiology such as CREST-associated motility disorder over food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -974,51 +974,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of finger ulcers, a possible complication in CREST syndrome, helps tip the scale towards food impaction where such systemic findings are not expected.</t>
+          <t>Finger ulcers are often seen in CREST syndrome secondary to vascular insufficiency; not seeing them makes a systemic disease less likely, favoring food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Halitosis observed is absent</t>
+          <t>Absence of epigastric pain on palpation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Food impaction often leads to halitosis due to stagnation of food; its absence favors a systemic motility disorder like CREST syndrome with Type 2 Achalasia.</t>
+          <t>Lack of epigastric pain diminishes the likelihood of an acute obstructive process like food impaction, aligning more with chronic dysmotility in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent</t>
+          <t>Joint swelling observed is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A hoarse voice may be present in neurological or reflux conditions associated with systemic diseases; its absence is more consistent with a benign mechanical obstruction like food impaction.</t>
+          <t>While joint swelling may appear in connective tissue diseases like CREST syndrome, its absence reduces the likelihood of such a systemic process, supporting food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent</t>
+          <t>Absence of joint swelling</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Although finger ulcers can be seen in severe CREST presentations, their absence in this context may still align with a limited cutaneous subtype that presents with achalasia rather than an acute obstructive process like food impaction.</t>
+          <t>The absence of joint swelling supports the notion of a scleroderma-like process (CREST syndrome) rather than an inflammatory process that might be associated with systemic conditions leading to food impaction secondary to other causes.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cough observed is absent</t>
+          <t>Rheumatoid nodules are absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cough can occur with aspiration in cases of achalasia; the absence of cough is more typical of food impaction, which does not usually affect the airway.</t>
+          <t>Although more specific for rheumatoid arthritis, the absence of rheumatoid nodules further diminishes the evidence for systemic connective tissue disease (as seen in CREST syndrome) and points toward a local mechanical issue like food impaction.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Absence of aspiration on MBS</t>
+          <t>Hyperlipidemia present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Food impaction that obstructs the esophagus often predisposes to aspiration, so a clear swallow study supports a chronic motility disorder like CREST-related achalasia over an acute impaction.</t>
+          <t>Although non‐specific, hyperlipidemia can be seen in patients with systemic diseases; in the absence of more typical evidence, its presence does little to support food impaction and in some populations may coexist with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of ANA strong positive</t>
+          <t>ANA strong positive is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A strong positive antinuclear antibody (ANA) is often associated with CREST syndrome; its absence favors a non-autoimmune etiology such as food impaction.</t>
+          <t>Food impaction is not associated with an autoimmune serologic profile, so the absence of a strong positive ANA argues against CREST syndrome and supports food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Absence of widened mediastinum on CXR</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An acute food impaction may sometimes be accompanied by secondary mediastinal changes (eg, esophageal dilation), so a normal chest X‐ray favors a non‐obstructive process such as CREST syndrome with Type 2 Achalasia.</t>
+          <t>Aspiration is a recognized complication of advanced achalasia; its absence is neutral but slightly favors a less severe mechanical obstruction as seen in CREST-associated motility issues versus food impaction causing acute aspiration risk.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of interstitial lung disease on CT</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is associated with systemic sclerosis (CREST syndrome); its absence supports an isolated mechanical issue like food impaction.</t>
+          <t>Interstitial lung disease is a known complication in CREST syndrome; its absence favors a diagnosis, like food impaction, that lacks systemic inflammatory involvement.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Absence of interstitial lung disease on CT</t>
+          <t>CXR shows widened mediastinum is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Although ILD can be seen in systemic sclerosis (of which CREST is a limited form), its absence argues against an acute complication of food impaction and supports a chronic motility disorder where lung findings may not yet have developed.</t>
+          <t>A widened mediastinum on chest X‐ray may be seen in acute mechanical obstructions such as food impaction; its absence does not point toward food bolus and is more consistent with a motility disorder like type 2 achalasia in CREST.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of widened mediastinum on CXR</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A widened mediastinum can indicate chronic changes from conditions like advanced scleroderma; its absence is more compatible with an acute process such as food impaction.</t>
+          <t>Food impaction may present acutely with aspiration if the bolus obstructs the esophagus; the absence of aspiration reduces the likelihood of complications seen in CREST-associated achalasia, albeit indirectly favoring a less systemic etiology such as food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of hyperlipidemia on lab testing</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While hyperlipidemia is nonspecific, its presence suggests a patient with chronic metabolic and vascular comorbidities rather than a sudden mechanical food impaction event.</t>
+          <t>Interstitial Lung Disease (ILD) can be a manifestation of CREST; while its absence does not confirm CREST, it makes an acute mechanical complication (food impaction with secondary lung involvement) less likely.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presence of hyperlipidemia on lab testing</t>
+          <t>CXR shows widened mediastinum is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is common in the general population; in the absence of autoimmune markers, it makes a non-systemic cause like food impaction more likely.</t>
+          <t>A widened mediastinum can occur in acute obstructive processes including food impaction; its absence makes acute mechanical complications more likely to be due to benign obstructions like food bolus rather than a systemic motility disorder.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Overall chronic clinical picture implied by multiple negative acute findings</t>
+          <t>ANA strong positive is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The constellation of absent acute findings (no aspiration, no mediastinal widening, no ILD) supports a chronic esophageal dysmotility (as seen in CREST with Type 2 Achalasia) rather than an acute obstructive event like food impaction.</t>
+          <t>A strong positive ANA is common in CREST syndrome; although its absence makes the diagnosis less typical, in rare cases CREST may present without a strongly positive ANA, thus not completely excluding it compared to food impaction which is not associated with ANA positivity.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of aspiration on MBS interpreted in an acute setting</t>
+          <t>Hyperlipidemia present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Even though aspiration can occur with food impaction, many patients with food bolus obstruction present without radiographically evident aspiration if evaluated early; this, in the absence of autoimmune and interstitial lung features, slightly favors a food impaction scenario over a systemic process.</t>
+          <t>While hyperlipidemia is not directly related to food impaction, its presence in a patient may indicate a lack of systemic connective tissue disease involvement typically seen in CREST syndrome, indirectly supporting food impaction.</t>
         </is>
       </c>
     </row>
